--- a/Data/Distribution of fans in Lesser-Poland Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lesser-Poland Voivodship/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lesser-poland-fans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lesser-poland-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FDDA5-92B4-4F52-95F8-8C2DCA715C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E732C792-9083-45D9-8FCF-854944C11F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wisła K." sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="Tarnovia T." sheetId="21" r:id="rId6"/>
     <sheet name="Unia O." sheetId="22" r:id="rId7"/>
     <sheet name="Beskid A." sheetId="23" r:id="rId8"/>
-    <sheet name="Stats" sheetId="16" r:id="rId9"/>
+    <sheet name="Górnik B." sheetId="24" r:id="rId9"/>
+    <sheet name="Hejnał K." sheetId="25" r:id="rId10"/>
+    <sheet name="Stats" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
   <si>
     <t>-</t>
   </si>
@@ -477,6 +479,21 @@
   <si>
     <t>Piwniczna-Zdrój (6 000)</t>
   </si>
+  <si>
+    <t>Górnik B.</t>
+  </si>
+  <si>
+    <t>Hejnał K.</t>
+  </si>
+  <si>
+    <t>Miasta - Górnik B.</t>
+  </si>
+  <si>
+    <t>Brzeszcze (11 000)</t>
+  </si>
+  <si>
+    <t>Kęty (19 000)</t>
+  </si>
 </sst>
 </file>
 
@@ -852,7 +869,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,13 +928,27 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent1" xfId="6" builtinId="29"/>
@@ -2328,7 +2359,7 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="3"/>
@@ -3388,6 +3419,267 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9B26BC-C484-4D68-A39C-C0AF11494A58}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="9">
+        <f>COUNTA('Wisła K.'!A:A) - 1</f>
+        <v>94</v>
+      </c>
+      <c r="C2" s="9">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="7">
+        <f>COUNTA('Cracovia K.'!A:A) - 1</f>
+        <v>52</v>
+      </c>
+      <c r="C3" s="7">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="7">
+        <f>COUNTA('Hutnik K.'!A:A) - 1</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="7">
+        <f>COUNTA('Sandecja NS.'!A:A) - 1</f>
+        <v>7</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="7">
+        <f>COUNTA('Unia T.'!A:A) - 1</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="7">
+        <f>COUNTA('Tarnovia T.'!A:A) - 1</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="7">
+        <f>COUNTA('Unia O.'!A:A) - 1</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="7">
+        <f>COUNTA('Unia O.'!A:A) - 1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="11">
+        <f>COUNTA('Górnik B.'!A:A) - 1</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="11">
+        <f>COUNTA('Hejnał K.'!A:A) - 1</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
+    <sortCondition descending="1" ref="B2:B15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15337,9 +15629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF3022-688A-43D7-9E04-913C6F2260B9}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17282,201 +17572,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C392E6DD-C08F-4A66-A7CD-0BBC28909D1B}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="9">
-        <f>COUNTA('Wisła K.'!A:A) - 1</f>
-        <v>94</v>
-      </c>
-      <c r="C2" s="9">
-        <v>52</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="7">
-        <f>COUNTA('Cracovia K.'!A:A) - 1</f>
-        <v>52</v>
-      </c>
-      <c r="C3" s="7">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="7">
-        <f>COUNTA('Hutnik K.'!A:A) - 1</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="7">
-        <f>COUNTA('Sandecja NS.'!A:A) - 1</f>
-        <v>7</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="7">
-        <f>COUNTA('Unia T.'!A:A) - 1</f>
-        <v>12</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="7">
-        <f>COUNTA('Tarnovia T.'!A:A) - 1</f>
-        <v>6</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="11">
-        <f>COUNTA('Unia O.'!A:A) - 1</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="11">
-        <f>COUNTA('Unia O.'!A:A) - 1</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
-    <sortCondition descending="1" ref="B2:B15"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Distribution of fans in Lesser-Poland Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lesser-Poland Voivodship/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lesser-poland-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E732C792-9083-45D9-8FCF-854944C11F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFF3B6-AA90-4421-976A-1E1CEAA3A00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="157">
   <si>
     <t>-</t>
   </si>
@@ -494,6 +494,30 @@
   <si>
     <t>Kęty (19 000)</t>
   </si>
+  <si>
+    <t>USA (Emigracja)</t>
+  </si>
+  <si>
+    <t>Anglia (Emigracja)</t>
+  </si>
+  <si>
+    <t>Irlandia (Emigracja)</t>
+  </si>
+  <si>
+    <t>Urugwaj (Emigracja)</t>
+  </si>
+  <si>
+    <t>Austria (Emigracja)</t>
+  </si>
+  <si>
+    <t>Węgry (Emigracja)</t>
+  </si>
+  <si>
+    <t>Tomice</t>
+  </si>
+  <si>
+    <t>Tomice (8 000)</t>
+  </si>
 </sst>
 </file>
 
@@ -869,7 +893,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,25 +952,19 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1262,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,8 +1317,8 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
+      <c r="A3" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1320,7 +1338,7 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1340,7 +1358,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1360,7 +1378,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1380,7 +1398,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1400,7 +1418,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1420,7 +1438,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1440,7 +1458,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1460,7 +1478,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1480,7 +1498,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1500,7 +1518,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1520,7 +1538,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1540,7 +1558,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1560,7 +1578,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1580,7 +1598,7 @@
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1600,7 +1618,7 @@
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1620,7 +1638,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1640,7 +1658,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1660,7 +1678,7 @@
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1680,7 +1698,7 @@
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1700,7 +1718,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1720,7 +1738,7 @@
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1740,7 +1758,7 @@
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1760,7 +1778,7 @@
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1779,8 +1797,8 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>66</v>
+      <c r="A27" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1800,7 +1818,7 @@
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1820,7 +1838,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1840,7 +1858,7 @@
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1860,7 +1878,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1880,7 +1898,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1900,7 +1918,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1920,7 +1938,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1940,7 +1958,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1960,7 +1978,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1980,7 +1998,7 @@
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2000,7 +2018,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2020,7 +2038,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2040,7 +2058,7 @@
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2060,7 +2078,7 @@
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2080,7 +2098,7 @@
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2100,7 +2118,7 @@
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2119,8 +2137,8 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>94</v>
+      <c r="A44" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2140,7 +2158,7 @@
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2159,8 +2177,8 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>26</v>
+      <c r="A46" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2180,7 +2198,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2200,7 +2218,7 @@
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2220,7 +2238,7 @@
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2240,7 +2258,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2260,7 +2278,7 @@
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2280,7 +2298,7 @@
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2300,7 +2318,7 @@
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2320,7 +2338,7 @@
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2340,7 +2358,7 @@
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2359,8 +2377,8 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>36</v>
+      <c r="A56" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2380,7 +2398,7 @@
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2400,7 +2418,7 @@
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2420,7 +2438,7 @@
     </row>
     <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2440,7 +2458,7 @@
     </row>
     <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2460,7 +2478,7 @@
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2480,7 +2498,7 @@
     </row>
     <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2500,7 +2518,7 @@
     </row>
     <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2520,7 +2538,7 @@
     </row>
     <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2540,7 +2558,7 @@
     </row>
     <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2560,7 +2578,7 @@
     </row>
     <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2580,7 +2598,7 @@
     </row>
     <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2600,7 +2618,7 @@
     </row>
     <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2620,7 +2638,7 @@
     </row>
     <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2640,7 +2658,7 @@
     </row>
     <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2660,7 +2678,7 @@
     </row>
     <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2680,7 +2698,7 @@
     </row>
     <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2700,7 +2718,7 @@
     </row>
     <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2720,7 +2738,7 @@
     </row>
     <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2740,7 +2758,7 @@
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2760,7 +2778,7 @@
     </row>
     <row r="76" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2780,7 +2798,7 @@
     </row>
     <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2800,7 +2818,7 @@
     </row>
     <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2820,7 +2838,7 @@
     </row>
     <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2840,7 +2858,7 @@
     </row>
     <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2860,7 +2878,7 @@
     </row>
     <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2880,7 +2898,7 @@
     </row>
     <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2900,7 +2918,7 @@
     </row>
     <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2920,7 +2938,7 @@
     </row>
     <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2939,8 +2957,8 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>76</v>
+      <c r="A85" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2960,7 +2978,7 @@
     </row>
     <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2980,7 +2998,7 @@
     </row>
     <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3000,7 +3018,7 @@
     </row>
     <row r="88" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3020,7 +3038,7 @@
     </row>
     <row r="89" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3040,7 +3058,7 @@
     </row>
     <row r="90" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3060,7 +3078,7 @@
     </row>
     <row r="91" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3080,7 +3098,7 @@
     </row>
     <row r="92" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3100,7 +3118,7 @@
     </row>
     <row r="93" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3120,7 +3138,7 @@
     </row>
     <row r="94" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3139,8 +3157,8 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>93</v>
+      <c r="A95" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3158,6 +3176,9 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3173,7 +3194,10 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
     </row>
-    <row r="97" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3189,7 +3213,10 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
     </row>
-    <row r="98" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3205,7 +3232,7 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
     </row>
-    <row r="99" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3221,7 +3248,7 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
     </row>
-    <row r="100" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3237,7 +3264,7 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
     </row>
-    <row r="101" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3253,7 +3280,7 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
     </row>
-    <row r="102" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3269,7 +3296,7 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
     </row>
-    <row r="103" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3285,7 +3312,7 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
     </row>
-    <row r="104" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3301,7 +3328,7 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
     </row>
-    <row r="105" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3317,7 +3344,7 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
     </row>
-    <row r="106" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3333,7 +3360,7 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
     </row>
-    <row r="107" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3349,7 +3376,7 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
     </row>
-    <row r="108" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3365,7 +3392,7 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
     </row>
-    <row r="109" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3381,7 +3408,7 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
     </row>
-    <row r="110" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3397,7 +3424,7 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
     </row>
-    <row r="111" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3414,8 +3441,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A95">
-    <sortCondition ref="A2:A95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A98">
+    <sortCondition ref="A87:A98"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3441,7 +3468,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3455,7 +3482,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3494,7 +3521,7 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTA('Wisła K.'!A:A) - 1</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C2" s="9">
         <v>52</v>
@@ -3515,7 +3542,7 @@
       </c>
       <c r="B3" s="7">
         <f>COUNTA('Cracovia K.'!A:A) - 1</f>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C3" s="7">
         <v>7</v>
@@ -3569,7 +3596,7 @@
       </c>
       <c r="B6" s="7">
         <f>COUNTA('Unia T.'!A:A) - 1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11">
         <v>0</v>
@@ -3582,12 +3609,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="7">
         <f>COUNTA('Tarnovia T.'!A:A) - 1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11">
         <v>0</v>
@@ -3600,7 +3627,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B8" s="7">
@@ -3618,25 +3645,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="7">
-        <f>COUNTA('Unia O.'!A:A) - 1</f>
+        <f>COUNTA('Beskid A.'!A:A) - 1</f>
         <v>3</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
+      <c r="C9" s="7">
+        <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>0</v>
+      <c r="E9" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="20" t="s">
         <v>144</v>
       </c>
       <c r="B10" s="11">
@@ -3654,7 +3681,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="21" t="s">
         <v>145</v>
       </c>
       <c r="B11" s="11">
@@ -3688,7 +3715,7 @@
   <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A4" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,8 +3751,8 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3743,8 +3770,8 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
+      <c r="A4" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3764,7 +3791,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3784,7 +3811,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3804,7 +3831,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3824,7 +3851,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3844,7 +3871,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3864,7 +3891,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3884,7 +3911,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3904,7 +3931,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3924,7 +3951,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3944,7 +3971,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3964,7 +3991,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3984,7 +4011,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4004,7 +4031,7 @@
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4024,7 +4051,7 @@
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4044,7 +4071,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4064,7 +4091,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4084,7 +4111,7 @@
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4104,7 +4131,7 @@
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4124,7 +4151,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4143,8 +4170,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>92</v>
+      <c r="A24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4164,7 +4191,7 @@
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4183,8 +4210,8 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>69</v>
+      <c r="A26" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4204,7 +4231,7 @@
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4224,7 +4251,7 @@
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4244,7 +4271,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4264,7 +4291,7 @@
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4284,7 +4311,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4304,7 +4331,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4324,7 +4351,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4344,7 +4371,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4364,7 +4391,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4384,7 +4411,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4404,7 +4431,7 @@
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4424,7 +4451,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4444,7 +4471,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4464,7 +4491,7 @@
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4484,7 +4511,7 @@
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4504,7 +4531,7 @@
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4524,7 +4551,7 @@
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4544,7 +4571,7 @@
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4564,7 +4591,7 @@
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4584,7 +4611,7 @@
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4604,7 +4631,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4624,7 +4651,7 @@
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4644,7 +4671,7 @@
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4664,7 +4691,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4683,8 +4710,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>57</v>
+      <c r="A51" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4703,8 +4730,8 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>53</v>
+      <c r="A52" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4723,8 +4750,8 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>108</v>
+      <c r="A53" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4743,7 +4770,9 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4761,7 +4790,9 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4779,7 +4810,9 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4797,7 +4830,9 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4815,7 +4850,9 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5697,6 +5734,7 @@
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -5714,6 +5752,7 @@
       <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -5731,6 +5770,7 @@
       <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -5748,6 +5788,7 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -5765,6 +5806,7 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -5782,8 +5824,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A53">
-    <sortCondition ref="A2:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A58">
+    <sortCondition ref="A38:A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -9749,7 +9791,7 @@
   <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9825,7 +9867,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9885,7 +9927,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -9905,7 +9947,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -9964,8 +10006,8 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>50</v>
+      <c r="A12" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -9985,8 +10027,1976 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>56</v>
       </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="78" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+    </row>
+    <row r="79" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+    </row>
+    <row r="80" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+    </row>
+    <row r="81" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+    </row>
+    <row r="103" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+    </row>
+    <row r="104" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+    </row>
+    <row r="105" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+    </row>
+    <row r="106" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+    </row>
+    <row r="107" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+    </row>
+    <row r="108" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+    </row>
+    <row r="109" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+    </row>
+    <row r="110" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+    </row>
+    <row r="111" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+    <sortCondition ref="A9:A14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B0F0A3-C87D-4078-B5C0-721DA247AB80}">
+  <dimension ref="A1:P111"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -10652,7 +12662,6 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -10670,7 +12679,6 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -10688,7 +12696,6 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -10706,7 +12713,6 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -10724,7 +12730,6 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -11711,1965 +13716,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
-    <sortCondition ref="A11:A13"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B0F0A3-C87D-4078-B5C0-721DA247AB80}">
-  <dimension ref="A1:P111"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="78" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-    </row>
-    <row r="79" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-    </row>
-    <row r="103" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-    </row>
-    <row r="104" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-    </row>
-    <row r="105" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-    </row>
-    <row r="106" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-    </row>
-    <row r="107" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-    </row>
-    <row r="108" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-    </row>
-    <row r="109" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-    </row>
-    <row r="110" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-    </row>
-    <row r="111" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
-    <sortCondition ref="A2:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A8">
+    <sortCondition ref="A6:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -15629,7 +15677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF3022-688A-43D7-9E04-913C6F2260B9}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15665,7 +15715,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -15684,7 +15734,7 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -17566,6 +17616,9 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -17590,7 +17643,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Data/Distribution of fans in Lesser-Poland Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lesser-Poland Voivodship/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lesser-poland-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFF3B6-AA90-4421-976A-1E1CEAA3A00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822632D7-A249-4828-B082-76A6EC81AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
   <si>
     <t>-</t>
   </si>
@@ -518,6 +518,30 @@
   <si>
     <t>Tomice (8 000)</t>
   </si>
+  <si>
+    <t>Polanka Wielka</t>
+  </si>
+  <si>
+    <t>Przeciszów</t>
+  </si>
+  <si>
+    <t>Osiek</t>
+  </si>
+  <si>
+    <t>Szczucin</t>
+  </si>
+  <si>
+    <t>Radgoszcz</t>
+  </si>
+  <si>
+    <t>Igołomnia-Warzeńczyce</t>
+  </si>
+  <si>
+    <t>Biały Dunajec</t>
+  </si>
+  <si>
+    <t>Raba Wyżna</t>
+  </si>
 </sst>
 </file>
 
@@ -958,14 +982,14 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1280,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1382,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1378,7 +1402,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1398,7 +1422,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1418,7 +1442,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1438,7 +1462,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1458,7 +1482,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1478,7 +1502,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1498,7 +1522,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1518,7 +1542,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1538,7 +1562,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1558,7 +1582,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1578,7 +1602,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1598,7 +1622,7 @@
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1618,7 +1642,7 @@
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1638,7 +1662,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1658,7 +1682,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1678,7 +1702,7 @@
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1698,7 +1722,7 @@
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1718,7 +1742,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1738,7 +1762,7 @@
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1758,7 +1782,7 @@
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1778,7 +1802,7 @@
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1797,8 +1821,8 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>151</v>
+      <c r="A27" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1818,7 +1842,7 @@
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1837,8 +1861,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>66</v>
+      <c r="A29" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1858,7 +1882,7 @@
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1878,7 +1902,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1898,7 +1922,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1918,7 +1942,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1938,7 +1962,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1958,7 +1982,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1978,7 +2002,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1998,7 +2022,7 @@
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2018,7 +2042,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2038,7 +2062,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2058,7 +2082,7 @@
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2078,7 +2102,7 @@
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2098,7 +2122,7 @@
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2118,7 +2142,7 @@
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2138,7 +2162,7 @@
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2158,7 +2182,7 @@
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2177,8 +2201,8 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>94</v>
+      <c r="A46" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2198,7 +2222,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2218,7 +2242,7 @@
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2237,8 +2261,8 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>69</v>
+      <c r="A49" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2258,7 +2282,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2278,7 +2302,7 @@
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2298,7 +2322,7 @@
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2318,7 +2342,7 @@
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2338,7 +2362,7 @@
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2358,7 +2382,7 @@
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2377,8 +2401,8 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>33</v>
+      <c r="A56" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2398,7 +2422,7 @@
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2418,7 +2442,7 @@
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2438,7 +2462,7 @@
     </row>
     <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2457,8 +2481,8 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>106</v>
+      <c r="A60" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2478,7 +2502,7 @@
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2498,7 +2522,7 @@
     </row>
     <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2518,7 +2542,7 @@
     </row>
     <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2538,7 +2562,7 @@
     </row>
     <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2558,7 +2582,7 @@
     </row>
     <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2578,7 +2602,7 @@
     </row>
     <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2598,7 +2622,7 @@
     </row>
     <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2618,7 +2642,7 @@
     </row>
     <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2638,7 +2662,7 @@
     </row>
     <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2658,7 +2682,7 @@
     </row>
     <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2678,7 +2702,7 @@
     </row>
     <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2698,7 +2722,7 @@
     </row>
     <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2718,7 +2742,7 @@
     </row>
     <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2738,7 +2762,7 @@
     </row>
     <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2758,7 +2782,7 @@
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2778,7 +2802,7 @@
     </row>
     <row r="76" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2798,7 +2822,7 @@
     </row>
     <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2818,7 +2842,7 @@
     </row>
     <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2838,7 +2862,7 @@
     </row>
     <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2858,7 +2882,7 @@
     </row>
     <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2878,7 +2902,7 @@
     </row>
     <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2898,7 +2922,7 @@
     </row>
     <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2918,7 +2942,7 @@
     </row>
     <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2938,7 +2962,7 @@
     </row>
     <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2957,8 +2981,8 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>149</v>
+      <c r="A85" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2978,7 +3002,7 @@
     </row>
     <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2998,7 +3022,7 @@
     </row>
     <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3018,7 +3042,7 @@
     </row>
     <row r="88" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3038,7 +3062,7 @@
     </row>
     <row r="89" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3058,7 +3082,7 @@
     </row>
     <row r="90" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3078,7 +3102,7 @@
     </row>
     <row r="91" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3098,7 +3122,7 @@
     </row>
     <row r="92" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3117,8 +3141,8 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>57</v>
+      <c r="A93" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3138,7 +3162,7 @@
     </row>
     <row r="94" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3158,7 +3182,7 @@
     </row>
     <row r="95" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3177,7 +3201,7 @@
     </row>
     <row r="96" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3196,7 +3220,7 @@
     </row>
     <row r="97" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3214,8 +3238,8 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>93</v>
+      <c r="A98" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3233,6 +3257,9 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3249,6 +3276,9 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3265,6 +3295,9 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3281,6 +3314,9 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3297,6 +3333,9 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3313,6 +3352,9 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3329,6 +3371,9 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3345,6 +3390,9 @@
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3441,8 +3489,8 @@
       <c r="P111" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A98">
-    <sortCondition ref="A87:A98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A106">
+    <sortCondition ref="A84:A106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3482,7 +3530,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,10 +3569,10 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTA('Wisła K.'!A:A) - 1</f>
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C2" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>136</v>
@@ -3542,7 +3590,7 @@
       </c>
       <c r="B3" s="7">
         <f>COUNTA('Cracovia K.'!A:A) - 1</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="7">
         <v>7</v>
@@ -3712,10 +3760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902497EE-BC71-4E98-AAEF-F5A1413AC8B4}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A3:A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,7 +3959,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3931,7 +3979,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3951,7 +3999,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3971,7 +4019,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3991,7 +4039,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4011,7 +4059,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4031,7 +4079,7 @@
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4051,7 +4099,7 @@
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4071,7 +4119,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4091,7 +4139,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4111,7 +4159,7 @@
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4131,7 +4179,7 @@
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4151,7 +4199,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4171,7 +4219,7 @@
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4191,7 +4239,7 @@
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4210,8 +4258,8 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>92</v>
+      <c r="A26" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4230,8 +4278,8 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
+      <c r="A27" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4251,7 +4299,7 @@
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4271,7 +4319,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4291,7 +4339,7 @@
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4311,7 +4359,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4331,7 +4379,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4351,7 +4399,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4371,7 +4419,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4391,7 +4439,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4411,7 +4459,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4431,7 +4479,7 @@
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4451,7 +4499,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4471,7 +4519,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4491,7 +4539,7 @@
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4511,7 +4559,7 @@
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4531,7 +4579,7 @@
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4551,7 +4599,7 @@
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4571,7 +4619,7 @@
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4591,7 +4639,7 @@
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4611,7 +4659,7 @@
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4631,7 +4679,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4651,7 +4699,7 @@
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4671,7 +4719,7 @@
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4691,7 +4739,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4710,8 +4758,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>152</v>
+      <c r="A51" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4731,7 +4779,7 @@
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4751,7 +4799,7 @@
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4770,8 +4818,8 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>49</v>
+      <c r="A54" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4791,7 +4839,7 @@
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4811,7 +4859,7 @@
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4831,7 +4879,7 @@
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4851,7 +4899,7 @@
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4870,7 +4918,9 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5823,9 +5873,12 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
     </row>
+    <row r="112" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A58">
-    <sortCondition ref="A38:A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A59">
+    <sortCondition ref="A39:A59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -10006,7 +10059,7 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="3"/>
@@ -11884,7 +11937,7 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="3"/>

--- a/Data/Distribution of fans in Lesser-Poland Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Lesser-Poland Voivodship/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\lesser-poland-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822632D7-A249-4828-B082-76A6EC81AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C489F1E-7669-40AD-A3BD-3BECC070FBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3530,7 +3530,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
